--- a/Untitled 1.xlsx
+++ b/Untitled 1.xlsx
@@ -20,29 +20,142 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
-  <si>
-    <t xml:space="preserve">A2G</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B2G</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C2B</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="40">
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TRAG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TRBG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TRAB </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TCAG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TCBG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TCAB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01290864</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.02M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0uF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01293815</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.44M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.1M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.1M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.7uF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01202542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.1M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.7M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.01M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100uF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01297961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.4M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.2M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.04M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">230uF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01290394</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.5M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.7M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.27M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01298498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.8M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01298109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30(voltage)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01295679</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01294019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01294066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.07M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.12M</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
   <fonts count="4">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -102,8 +215,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -124,26 +241,270 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="E21" activeCellId="0" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.85"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.7704081632653"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="9.69387755102041"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.48469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
